--- a/test_fa/h-app.xlsx
+++ b/test_fa/h-app.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al-Fahd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\h-app\test_fa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA953711-6ECB-4FB2-BB09-0CB199D563D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DB944-B32C-412C-A4A7-EF4A7C24F8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EA781EF1-A361-4F9B-89AC-532CABC1B1FC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
-    <sheet name="app" sheetId="1" r:id="rId2"/>
+    <sheet name="app" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,31 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>resorce</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>serch</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>routs</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>delet</t>
-  </si>
-  <si>
-    <t>firest insartion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>user</t>
   </si>
@@ -64,15 +40,9 @@
     <t>person</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>yeas</t>
-  </si>
-  <si>
     <t>working</t>
   </si>
   <si>
@@ -82,22 +52,235 @@
     <t>no need</t>
   </si>
   <si>
-    <t>needed</t>
-  </si>
-  <si>
     <t>index method</t>
   </si>
   <si>
-    <t>index view</t>
-  </si>
-  <si>
-    <t>forms view</t>
-  </si>
-  <si>
-    <t>DB table</t>
-  </si>
-  <si>
-    <t>rouls</t>
+    <t>views</t>
+  </si>
+  <si>
+    <t>show method</t>
+  </si>
+  <si>
+    <t>create method</t>
+  </si>
+  <si>
+    <t>store method</t>
+  </si>
+  <si>
+    <t>edit method</t>
+  </si>
+  <si>
+    <t>update method</t>
+  </si>
+  <si>
+    <t>destroy method</t>
+  </si>
+  <si>
+    <t>validate method</t>
+  </si>
+  <si>
+    <t>__constracut mothod</t>
+  </si>
+  <si>
+    <t>check method</t>
+  </si>
+  <si>
+    <t>serche method</t>
+  </si>
+  <si>
+    <t>formsData method</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Routs</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>$guarded</t>
+  </si>
+  <si>
+    <t>relations</t>
+  </si>
+  <si>
+    <t>scope Functions</t>
+  </si>
+  <si>
+    <t>$hidden</t>
+  </si>
+  <si>
+    <t>$fillable</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>DB migration fields</t>
+  </si>
+  <si>
+    <t>initial data to Data</t>
+  </si>
+  <si>
+    <t>firstInsertion method</t>
+  </si>
+  <si>
+    <t>check.blade.php</t>
+  </si>
+  <si>
+    <t>create.blade.php</t>
+  </si>
+  <si>
+    <t>index.blade.php</t>
+  </si>
+  <si>
+    <t>show.blade.php</t>
+  </si>
+  <si>
+    <t>destroy.blade.php</t>
+  </si>
+  <si>
+    <t>edit.blade.php</t>
+  </si>
+  <si>
+    <t>forms</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>need improvement</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orang</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>just_init</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
+  </si>
+  <si>
+    <t>Column20</t>
+  </si>
+  <si>
+    <t>Column21</t>
+  </si>
+  <si>
+    <t>Column22</t>
+  </si>
+  <si>
+    <t>Column23</t>
+  </si>
+  <si>
+    <t>Column24</t>
+  </si>
+  <si>
+    <t>Column25</t>
+  </si>
+  <si>
+    <t>Column26</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>task</t>
   </si>
 </sst>
 </file>
@@ -114,7 +297,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -129,12 +312,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -212,34 +395,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="63">
     <dxf>
       <font>
         <b val="0"/>
@@ -251,20 +483,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -276,6 +511,43 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -283,7 +555,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -298,20 +570,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -331,28 +606,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -366,20 +642,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -387,20 +666,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -413,14 +678,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -428,9 +698,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -444,26 +714,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -477,26 +750,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -510,26 +786,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -543,26 +822,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -576,26 +858,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -609,26 +894,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -642,26 +930,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -675,26 +966,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -708,53 +1002,29 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -768,15 +1038,1029 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="0" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="0" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="0" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="0" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF7171"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,21 +2073,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFAB0792-19AA-4D47-9158-3EA7AB66D86E}" name="Table1" displayName="Table1" ref="A1:M3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AA365D49-EBAA-4AAA-86F7-D80B4B3A9201}" name="resorce" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D5A67EC2-A691-400D-9525-D664FF822E99}" name="routs" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{22794B86-92BA-4616-A098-0E7E6D0BC91C}" name="DB table" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{FD8E1B48-4E48-4459-A953-C2006F469EFF}" name="rouls" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{73604451-30BF-4D12-ADD4-BC50F538D78D}" name="index view" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{1D1328A0-D249-4732-AE2E-B72967B114A9}" name="index method" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{CBE6F248-1FA1-4BC5-A613-38C69E7F261B}" name="serch" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{C3931246-2401-4B3F-8A5E-F48F4B4EE502}" name="show" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{359DCB95-B98B-4594-BC5E-365F32A5E0E4}" name="create" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{B336F56B-212C-4B12-9883-B18A5DA3DFB3}" name="update" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{9D448B32-DEE5-46A1-A222-3F9198F6D916}" name="forms view" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{717BBDD5-EB97-4D67-B2FE-9488DB7C58E7}" name="delet" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{C29FB66A-16B4-4722-B803-250585F7ADB8}" name="firest insartion" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E65D86D-2E49-4522-AC78-7CB1AD47D30B}" name="Table2" displayName="Table2" ref="A2:AJ47" totalsRowShown="0" headerRowDxfId="53" dataDxfId="54" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60">
+  <autoFilter ref="A2:AJ47" xr:uid="{CB1D3579-E626-4505-B56C-DA0C97B28397}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{E30A2E4A-A636-4142-870D-CC4EF578069C}" name="Model" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{EC6A313F-4490-4A35-84D9-0AC1B1F21961}" name="user" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{C09DE893-13A5-4D00-9AE7-F7BB71B7B904}" name="person" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{26EE1A62-04A9-43B4-96C6-08E44C1F3EA2}" name="employee" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{2D2070A0-226D-4191-9B7B-6357491F90EE}" name="customer" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{8C5C8E84-9FF6-4C4B-9ED8-AF6025B176AC}" name="project" dataDxfId="56"/>
+    <tableColumn id="36" xr3:uid="{B8B708F8-95F5-4ABE-B856-7B3E5310B7FA}" name="plot" dataDxfId="0"/>
+    <tableColumn id="35" xr3:uid="{023CECCB-20CD-4A07-81E7-780970C3C272}" name="contract" dataDxfId="8"/>
+    <tableColumn id="34" xr3:uid="{965501CB-3658-4E9C-8453-B1D01C0C1859}" name="task" dataDxfId="9"/>
+    <tableColumn id="33" xr3:uid="{C13D9813-71DF-4CB5-A629-A2EE0FE590EE}" name="Column26" dataDxfId="10"/>
+    <tableColumn id="32" xr3:uid="{1656EAE5-293B-4317-84B4-920499F067AE}" name="Column25" dataDxfId="11"/>
+    <tableColumn id="31" xr3:uid="{D7DEA560-C1E0-4609-A5DF-38B0441B2BBC}" name="Column24" dataDxfId="12"/>
+    <tableColumn id="30" xr3:uid="{EA0618B2-8C39-4025-BA41-711403079622}" name="Column23" dataDxfId="13"/>
+    <tableColumn id="29" xr3:uid="{8101737E-687B-4EFD-B7B3-7DE15096989A}" name="Column22" dataDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{1176B79C-6BDF-4D3E-81CF-E25E217836C8}" name="Column21" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{0C4DD193-BBD6-4BC0-A524-1ECB489229EF}" name="Column20" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{A73FD8AE-84C8-4FFD-9ACA-317E5730CF76}" name="Column19" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{21B203FE-9E5D-44F3-B910-F75CA8B26FF2}" name="Column18" dataDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{EB48CEAB-D6DF-4D3E-BE8D-B29E5C7BAA3E}" name="Column17" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{47E81AB6-E652-4D60-BB84-475F9135CC0F}" name="Column16" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{965EF70B-0EFE-4A36-8350-D427132E92A4}" name="Column15" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{5CCC74D7-3BAC-4E56-A522-81182DE8B219}" name="Column14" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{2F318267-9139-4A53-A3F5-3ED3F0DD379F}" name="Column13" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{F501110A-2C44-4991-A589-2E2187A7E309}" name="Column12" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{E0D5EBEC-453B-45E9-9A05-4F74464FB05D}" name="Column11" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{36E84BD2-CBFB-41C5-BBEB-C02944ED239D}" name="Column10" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{E0DE064E-6C57-42A7-B282-A55E4616D273}" name="Column9" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{4385F168-8BEB-45D7-A03E-94853554AF22}" name="Column8" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{0E3D5A58-1AED-4FD9-918E-A8A7DE42EE35}" name="Column7" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{D1D0351E-408D-452F-A1A9-78FF45742E59}" name="Column6" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{78503AE6-E763-400F-B4D0-9711341470B4}" name="Column5" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{C64520FB-6578-4497-BA61-2A0A428BFC24}" name="Column4" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{4CD3B232-9950-41D3-9946-97EA838DEAD1}" name="Column3" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{5B453744-CE3C-43F0-9D34-68B0C1C0B203}" name="Column2" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{555B9D95-E477-46E1-BEC4-5D66E2ED882A}" name="Column1" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{CE243AAE-8265-4A41-9E7F-36734A5B6307}" name="test3" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1106,47 +2414,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE91A80C-E4AC-474E-A7AD-F77ECB7294A2}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1155,113 +2489,1957 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E542E8-C338-4B81-BDB5-75A4F09AFEF8}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6952FFA-22C2-4FDD-9BDF-B4183E597FD5}">
+  <dimension ref="A2:AJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9.375" style="1"/>
-    <col min="9" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.375" style="1"/>
-    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.375" style="1"/>
+    <col min="1" max="1" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="41" width="22" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="3"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="3"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"yeas"</formula>
+  <conditionalFormatting sqref="B3:AJ44">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"ok"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"need improvement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"just_init"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"error"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"no need"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,11 +4450,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C01EA6-6EEA-4C0E-A7C6-2F64FA50C4E3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59A7F75B-F7E7-43D6-A273-8751C8DF1F84}">
           <x14:formula1>
-            <xm:f>data!$A$2:$A$40</xm:f>
+            <xm:f>data!$B$3:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:M3</xm:sqref>
+          <xm:sqref>B3:AJ44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/test_fa/h-app.xlsx
+++ b/test_fa/h-app.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\h-app\test_fa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DB944-B32C-412C-A4A7-EF4A7C24F8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E639FF04-8A60-41ED-AF75-E6A6E865F1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EA781EF1-A361-4F9B-89AC-532CABC1B1FC}"/>
   </bookViews>
@@ -250,27 +250,6 @@
     <t>Column18</t>
   </si>
   <si>
-    <t>Column19</t>
-  </si>
-  <si>
-    <t>Column20</t>
-  </si>
-  <si>
-    <t>Column21</t>
-  </si>
-  <si>
-    <t>Column22</t>
-  </si>
-  <si>
-    <t>Column23</t>
-  </si>
-  <si>
-    <t>Column24</t>
-  </si>
-  <si>
-    <t>Column25</t>
-  </si>
-  <si>
     <t>Column26</t>
   </si>
   <si>
@@ -281,6 +260,27 @@
   </si>
   <si>
     <t>task</t>
+  </si>
+  <si>
+    <t>SaudiCity</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MunicipalityBranch</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Neighbor</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Street</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +313,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -467,11 +479,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="48">
     <dxf>
       <font>
         <b val="0"/>
@@ -492,10 +506,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -503,61 +517,10 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF7171"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1568,146 +1531,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1725,22 +1548,22 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1770,15 +1593,11 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1799,9 +1618,9 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1811,8 +1630,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1838,6 +1661,20 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1866,7 +1703,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1902,11 +1741,15 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1927,12 +1770,33 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1970,16 +1834,9 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2003,9 +1860,9 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2015,43 +1872,60 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF7171"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2073,45 +1947,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E65D86D-2E49-4522-AC78-7CB1AD47D30B}" name="Table2" displayName="Table2" ref="A2:AJ47" totalsRowShown="0" headerRowDxfId="53" dataDxfId="54" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E65D86D-2E49-4522-AC78-7CB1AD47D30B}" name="Table2" displayName="Table2" ref="A2:AJ47" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="A2:AJ47" xr:uid="{CB1D3579-E626-4505-B56C-DA0C97B28397}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{E30A2E4A-A636-4142-870D-CC4EF578069C}" name="Model" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{EC6A313F-4490-4A35-84D9-0AC1B1F21961}" name="user" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{C09DE893-13A5-4D00-9AE7-F7BB71B7B904}" name="person" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{26EE1A62-04A9-43B4-96C6-08E44C1F3EA2}" name="employee" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{2D2070A0-226D-4191-9B7B-6357491F90EE}" name="customer" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{8C5C8E84-9FF6-4C4B-9ED8-AF6025B176AC}" name="project" dataDxfId="56"/>
-    <tableColumn id="36" xr3:uid="{B8B708F8-95F5-4ABE-B856-7B3E5310B7FA}" name="plot" dataDxfId="0"/>
-    <tableColumn id="35" xr3:uid="{023CECCB-20CD-4A07-81E7-780970C3C272}" name="contract" dataDxfId="8"/>
-    <tableColumn id="34" xr3:uid="{965501CB-3658-4E9C-8453-B1D01C0C1859}" name="task" dataDxfId="9"/>
-    <tableColumn id="33" xr3:uid="{C13D9813-71DF-4CB5-A629-A2EE0FE590EE}" name="Column26" dataDxfId="10"/>
-    <tableColumn id="32" xr3:uid="{1656EAE5-293B-4317-84B4-920499F067AE}" name="Column25" dataDxfId="11"/>
-    <tableColumn id="31" xr3:uid="{D7DEA560-C1E0-4609-A5DF-38B0441B2BBC}" name="Column24" dataDxfId="12"/>
-    <tableColumn id="30" xr3:uid="{EA0618B2-8C39-4025-BA41-711403079622}" name="Column23" dataDxfId="13"/>
-    <tableColumn id="29" xr3:uid="{8101737E-687B-4EFD-B7B3-7DE15096989A}" name="Column22" dataDxfId="14"/>
-    <tableColumn id="28" xr3:uid="{1176B79C-6BDF-4D3E-81CF-E25E217836C8}" name="Column21" dataDxfId="15"/>
-    <tableColumn id="27" xr3:uid="{0C4DD193-BBD6-4BC0-A524-1ECB489229EF}" name="Column20" dataDxfId="16"/>
-    <tableColumn id="26" xr3:uid="{A73FD8AE-84C8-4FFD-9ACA-317E5730CF76}" name="Column19" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E30A2E4A-A636-4142-870D-CC4EF578069C}" name="Model" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{EC6A313F-4490-4A35-84D9-0AC1B1F21961}" name="user" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{C09DE893-13A5-4D00-9AE7-F7BB71B7B904}" name="person" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{26EE1A62-04A9-43B4-96C6-08E44C1F3EA2}" name="employee" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{2D2070A0-226D-4191-9B7B-6357491F90EE}" name="customer" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{8C5C8E84-9FF6-4C4B-9ED8-AF6025B176AC}" name="project" dataDxfId="30"/>
+    <tableColumn id="36" xr3:uid="{B8B708F8-95F5-4ABE-B856-7B3E5310B7FA}" name="plot" dataDxfId="29"/>
+    <tableColumn id="35" xr3:uid="{023CECCB-20CD-4A07-81E7-780970C3C272}" name="contract" dataDxfId="28"/>
+    <tableColumn id="34" xr3:uid="{965501CB-3658-4E9C-8453-B1D01C0C1859}" name="task" dataDxfId="27"/>
+    <tableColumn id="33" xr3:uid="{C13D9813-71DF-4CB5-A629-A2EE0FE590EE}" name="Column26" dataDxfId="26"/>
+    <tableColumn id="32" xr3:uid="{1656EAE5-293B-4317-84B4-920499F067AE}" name="Country" dataDxfId="25"/>
+    <tableColumn id="31" xr3:uid="{D7DEA560-C1E0-4609-A5DF-38B0441B2BBC}" name="SaudiCity" dataDxfId="24"/>
+    <tableColumn id="30" xr3:uid="{EA0618B2-8C39-4025-BA41-711403079622}" name="MunicipalityBranch" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{8101737E-687B-4EFD-B7B3-7DE15096989A}" name="District" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{1176B79C-6BDF-4D3E-81CF-E25E217836C8}" name="Neighbor" dataDxfId="21"/>
+    <tableColumn id="27" xr3:uid="{0C4DD193-BBD6-4BC0-A524-1ECB489229EF}" name="Plan" dataDxfId="20"/>
+    <tableColumn id="26" xr3:uid="{A73FD8AE-84C8-4FFD-9ACA-317E5730CF76}" name="Street" dataDxfId="19"/>
     <tableColumn id="25" xr3:uid="{21B203FE-9E5D-44F3-B910-F75CA8B26FF2}" name="Column18" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{EB48CEAB-D6DF-4D3E-BE8D-B29E5C7BAA3E}" name="Column17" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{47E81AB6-E652-4D60-BB84-475F9135CC0F}" name="Column16" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{965EF70B-0EFE-4A36-8350-D427132E92A4}" name="Column15" dataDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{5CCC74D7-3BAC-4E56-A522-81182DE8B219}" name="Column14" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{2F318267-9139-4A53-A3F5-3ED3F0DD379F}" name="Column13" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{F501110A-2C44-4991-A589-2E2187A7E309}" name="Column12" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{E0D5EBEC-453B-45E9-9A05-4F74464FB05D}" name="Column11" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{36E84BD2-CBFB-41C5-BBEB-C02944ED239D}" name="Column10" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{E0DE064E-6C57-42A7-B282-A55E4616D273}" name="Column9" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{4385F168-8BEB-45D7-A03E-94853554AF22}" name="Column8" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{0E3D5A58-1AED-4FD9-918E-A8A7DE42EE35}" name="Column7" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{D1D0351E-408D-452F-A1A9-78FF45742E59}" name="Column6" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{78503AE6-E763-400F-B4D0-9711341470B4}" name="Column5" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{C64520FB-6578-4497-BA61-2A0A428BFC24}" name="Column4" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{4CD3B232-9950-41D3-9946-97EA838DEAD1}" name="Column3" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{5B453744-CE3C-43F0-9D34-68B0C1C0B203}" name="Column2" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{555B9D95-E477-46E1-BEC4-5D66E2ED882A}" name="Column1" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{CE243AAE-8265-4A41-9E7F-36734A5B6307}" name="test3" dataDxfId="55"/>
+    <tableColumn id="24" xr3:uid="{EB48CEAB-D6DF-4D3E-BE8D-B29E5C7BAA3E}" name="Column17" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{47E81AB6-E652-4D60-BB84-475F9135CC0F}" name="Column16" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{965EF70B-0EFE-4A36-8350-D427132E92A4}" name="Column15" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{5CCC74D7-3BAC-4E56-A522-81182DE8B219}" name="Column14" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{2F318267-9139-4A53-A3F5-3ED3F0DD379F}" name="Column13" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{F501110A-2C44-4991-A589-2E2187A7E309}" name="Column12" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{E0D5EBEC-453B-45E9-9A05-4F74464FB05D}" name="Column11" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{36E84BD2-CBFB-41C5-BBEB-C02944ED239D}" name="Column10" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{E0DE064E-6C57-42A7-B282-A55E4616D273}" name="Column9" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{4385F168-8BEB-45D7-A03E-94853554AF22}" name="Column8" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{0E3D5A58-1AED-4FD9-918E-A8A7DE42EE35}" name="Column7" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{D1D0351E-408D-452F-A1A9-78FF45742E59}" name="Column6" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{78503AE6-E763-400F-B4D0-9711341470B4}" name="Column5" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{C64520FB-6578-4497-BA61-2A0A428BFC24}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{4CD3B232-9950-41D3-9946-97EA838DEAD1}" name="Column3" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{5B453744-CE3C-43F0-9D34-68B0C1C0B203}" name="Column2" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{555B9D95-E477-46E1-BEC4-5D66E2ED882A}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CE243AAE-8265-4A41-9E7F-36734A5B6307}" name="test3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2490,11 +2364,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6952FFA-22C2-4FDD-9BDF-B4183E597FD5}">
-  <dimension ref="A2:AJ47"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2504,6 +2378,15 @@
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
@@ -2524,37 +2407,37 @@
         <v>54</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>71</v>
@@ -4420,25 +4303,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:AJ44">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"need improvement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"just_init"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"error"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"no need"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
       <formula>"working"</formula>
     </cfRule>
   </conditionalFormatting>
